--- a/Test Cases for Smart City Website - Aarond Dino.xlsx
+++ b/Test Cases for Smart City Website - Aarond Dino.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
   <si>
     <t>Project Name</t>
   </si>
@@ -318,10 +318,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Passed, but not on server yet.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Passed
 </t>
   </si>
@@ -480,9 +476,6 @@
     </r>
   </si>
   <si>
-    <t>A user is notified on missing fields, when attempted to register an account incorrectly.</t>
-  </si>
-  <si>
     <t>A user is notified on invalid email addresses when attempting to register an account incorrectly.</t>
   </si>
   <si>
@@ -535,9 +528,6 @@
     <t>An admin user is able delete user accounts.</t>
   </si>
   <si>
-    <t>An admin user is able to add new information libraries and data.</t>
-  </si>
-  <si>
     <t>An admin user is able to register new users.</t>
   </si>
   <si>
@@ -563,13 +553,321 @@
   </si>
   <si>
     <t>SCW_TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed.
+</t>
+  </si>
+  <si>
+    <t>An admin user is able to create other admin users.</t>
+  </si>
+  <si>
+    <t>Admin user is able to utilise an agile system to allow information additions of other libraries in future (e.g. health services)</t>
+  </si>
+  <si>
+    <t>A student user is able to view more information about a specific college.</t>
+  </si>
+  <si>
+    <t>A student user is able to view a list of colleges in the city.</t>
+  </si>
+  <si>
+    <t>A student user is able to view a list of libraries in the city.</t>
+  </si>
+  <si>
+    <t>A tourist user is able to view a list of hotels in the city.</t>
+  </si>
+  <si>
+    <t>A tourist user is able to view more information about a specific hotel.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view more information about a specific industry.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to see the contact details of a specific industry.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view a list of industries in the city.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view a list of hotels in the city.</t>
+  </si>
+  <si>
+    <t>A tourist is able to view the number or website booking link, to book a reservation.</t>
+  </si>
+  <si>
+    <t>SCW_TC_30</t>
+  </si>
+  <si>
+    <t>SCW_TC_31</t>
+  </si>
+  <si>
+    <t>SCW_TC_32</t>
+  </si>
+  <si>
+    <t>SCW_TC_33</t>
+  </si>
+  <si>
+    <t>SCW_TC_34</t>
+  </si>
+  <si>
+    <t>SCW_TC_35</t>
+  </si>
+  <si>
+    <t>SCW_TC_36</t>
+  </si>
+  <si>
+    <t>A registered user is able to view the city maps.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of zoos and its details.</t>
+  </si>
+  <si>
+    <t>A registed user is able to view a list of malls and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of restaurants and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of parks and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of museums and its details.</t>
+  </si>
+  <si>
+    <t>SCW_TC_37</t>
+  </si>
+  <si>
+    <t>SCW_TC_38</t>
+  </si>
+  <si>
+    <t>SCW_TC_39</t>
+  </si>
+  <si>
+    <t>SCW_TC_40</t>
+  </si>
+  <si>
+    <t>SCW_TC_41</t>
+  </si>
+  <si>
+    <t>SCW_TC_42</t>
+  </si>
+  <si>
+    <t>SCW_TC_43</t>
+  </si>
+  <si>
+    <t>The website is designed to allow future implementations of other australian cities, after brisbane.</t>
+  </si>
+  <si>
+    <t>SCW_TC_44</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered account.</t>
+  </si>
+  <si>
+    <t>All information regarding zoos, malls, restaurants, malls, museums, and city maps, should all be viewed underneath city information.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.</t>
+  </si>
+  <si>
+    <t>A user is able to select the city they want to view information in.</t>
+  </si>
+  <si>
+    <t>A user is able to log out of their account securely, and be redirected to the select city page.</t>
+  </si>
+  <si>
+    <t>Incomplete signup form</t>
+  </si>
+  <si>
+    <t>A user is notified on missing fields, when attempting to register an account incorrectly.</t>
+  </si>
+  <si>
+    <t>Incomplete email address field</t>
+  </si>
+  <si>
+    <t>Incorrect confirmation password</t>
+  </si>
+  <si>
+    <t>Restricted access page e.g. /student, /colleges etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Website URL or logged-in account.
+</t>
+  </si>
+  <si>
+    <t>Logged-in account.</t>
+  </si>
+  <si>
+    <t>Businessman Account
+Student or Tourist exclusive wepbage URLs.</t>
+  </si>
+  <si>
+    <t>Student Account
+Businessman or Tourist exclusive webpage URLs.</t>
+  </si>
+  <si>
+    <t>Tourist Account
+Businessman or Student exclusive webpage URLs.</t>
+  </si>
+  <si>
+    <t>Logged in Admin Account</t>
+  </si>
+  <si>
+    <t>Logged in Student Account</t>
+  </si>
+  <si>
+    <t>Logged in Businessman Account</t>
+  </si>
+  <si>
+    <t>Logged in Tourist Account</t>
+  </si>
+  <si>
+    <t>Logged in Registered Account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website URL
+</t>
+  </si>
+  <si>
+    <t>An admin user is able to revoke user access.</t>
+  </si>
+  <si>
+    <t>SCW_TC_45</t>
+  </si>
+  <si>
+    <t>User will have a registered student account and have access to student exclusive pages.</t>
+  </si>
+  <si>
+    <t>User will have a registered tourist account and have access to tourist exclusive pages.</t>
+  </si>
+  <si>
+    <t>User will have a registered businessman account and have access to businessman exclusive pages.</t>
+  </si>
+  <si>
+    <t>Businessman type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>Student type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>Tourist type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>User is unable to log on, notified of incorrect username/password combination. Password field reset.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of incomplete fields.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of invalid email address.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of incorrect confirmation password.</t>
+  </si>
+  <si>
+    <t>User redirected to selected city's home page.</t>
+  </si>
+  <si>
+    <t>User is logged out of account, and redirected to select city page.</t>
+  </si>
+  <si>
+    <t>User is redirected to an 'access denied' page.</t>
+  </si>
+  <si>
+    <t>A new user account will be registered to the database.</t>
+  </si>
+  <si>
+    <t>An admin user is able to add and modify information libraries and data.</t>
+  </si>
+  <si>
+    <t>Library information will be updated on the website, visible to all allowed users.</t>
+  </si>
+  <si>
+    <t>A user acount will be removed from the database.</t>
+  </si>
+  <si>
+    <t>City Maps will be updated on the website, visible to all registered users.</t>
+  </si>
+  <si>
+    <t>A new admin account will  be created.</t>
+  </si>
+  <si>
+    <t>The website is able to add more libraries and information in the future.</t>
+  </si>
+  <si>
+    <t>Student users are able to view a list of colleges, with details and links.</t>
+  </si>
+  <si>
+    <t>Student users are redirected to the college website.</t>
+  </si>
+  <si>
+    <t>Student users are able to view a list of libraries, with details and links.</t>
+  </si>
+  <si>
+    <t>Businessman users are able to view a list of industries, with details and links.</t>
+  </si>
+  <si>
+    <t>Student users are redirected to the library website.</t>
+  </si>
+  <si>
+    <t>Tourist users are redirected to the hotel website.</t>
+  </si>
+  <si>
+    <t>Businessman  users are redirected to the industry website.</t>
+  </si>
+  <si>
+    <t>Businessman users are able to view the number and email address of an industry.</t>
+  </si>
+  <si>
+    <t>Tourist users are able to view a list of hotels with details and links.</t>
+  </si>
+  <si>
+    <t>Tourist users are able to view the contact number of hotels and or book a reservation online on the hotel's page.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view maps of the city.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of zoos with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of malls with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of restaurants with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of parks with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of museums with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view zoos, malls, restaurants, museums, parks, and city maps information under the city information.</t>
+  </si>
+  <si>
+    <t>The website is agile to add other cities and associated information.</t>
+  </si>
+  <si>
+    <t>A user will have its website access revoked.</t>
+  </si>
+  <si>
+    <t>SCW_TC_46</t>
+  </si>
+  <si>
+    <t>An admin user is able to use quick access control panel to use parts of the site conveniently.</t>
+  </si>
+  <si>
+    <t>Admin user is able to view different user views, modify users, libraries and information within the nav bar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +919,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,8 +975,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1011,18 +1327,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF002060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF002060"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF002060"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1030,41 +1390,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1074,92 +1409,193 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,15 +1621,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>209551</xdr:colOff>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>1186914</xdr:rowOff>
+          <xdr:rowOff>1190625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1924050</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>1533524</xdr:rowOff>
+          <xdr:rowOff>1533525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1203,7 +1639,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C599020-508B-4211-8EA1-F31D82C103E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1224,23 +1660,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1558,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1D04BC-071B-46C5-9567-A78BA4D1772B}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,908 +2001,1527 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="G2" s="26" t="s">
+      <c r="D2" s="46"/>
+      <c r="G2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="G3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="G4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="G3" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="G4" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="36" t="s">
+      <c r="E18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="H18" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="37" t="s">
+      <c r="E22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="D25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="37" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="37" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="37" t="s">
+      <c r="B37" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="37" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="54"/>
+      <c r="G44" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="54"/>
+      <c r="G45" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="D48" s="54"/>
+      <c r="E48" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="54"/>
+      <c r="G49" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H53" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="H54" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="57"/>
+      <c r="E56" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="57"/>
+      <c r="E57" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="H60" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C16"/>
@@ -2487,14 +3529,15 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="H8:H12"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Test Cases for Smart City Website - Aarond Dino.xlsx
+++ b/Test Cases for Smart City Website - Aarond Dino.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\I-am-the-Scrub-Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="246">
   <si>
     <t>Project Name</t>
   </si>
@@ -291,6 +291,709 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Passed
+</t>
+  </si>
+  <si>
+    <t>Test has failed</t>
+  </si>
+  <si>
+    <t>Test passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed
+</t>
+  </si>
+  <si>
+    <t>Test incomplete pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student users are authenticated and can view colleges, libraries and city information, and the navigation bar is updated to allow logout, home and about us links.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users are able to create accounts and logon securely.
+</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page of the website, from the homepage.
+2. Select the student account type on the registration page.
+3. Input desired username, email, and password within the registration form fields.</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page of the website, from the homepage.
+2. Select the businessman account type on the registration page.
+3. Input desired username, email, and password within the registration form fields.</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page of the website, from the homepage.
+2. Select the tourist account type on the registration page.
+3. Input desired username, email, and password within the registration form fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to register a 
+student account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to register a
+ businessman account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is able to register a 
+tourist account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Successfully navigate to the login page.
+2. Correctly fill in the required fields of username and password.
+3. Press the login button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Successfully navigate to registration form page, or login page from the home page.
+2. Fill in the password and or confirm password fields within the forms.
+</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the login page.
+2. Correctly input username and password.
+3. Press the login button.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valid username:
+businessmanuser
+A valid email:
+iwearsuits@gmail.com
+A valid password:
+burndowncharts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valid username:
+studentuser
+A valid email:
+studentuser@gmail.com
+A valid password:
+imindebt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valid username:
+touristuser
+A valid email:
+whereami@gmail.com
+A valid password:
+boringcity
+</t>
+  </si>
+  <si>
+    <t>A valid username
+A valid password</t>
+  </si>
+  <si>
+    <t>SCW_TC_11</t>
+  </si>
+  <si>
+    <t>A user is denied further access of the site, when an incorrect username or password is inputted on the login page.</t>
+  </si>
+  <si>
+    <t>SCW_TC_12</t>
+  </si>
+  <si>
+    <t>SCW_TC_13</t>
+  </si>
+  <si>
+    <t>SCW_TC_14</t>
+  </si>
+  <si>
+    <t>SCW_TC_15</t>
+  </si>
+  <si>
+    <t>SCW_TC_16</t>
+  </si>
+  <si>
+    <t>SCW_TC_17</t>
+  </si>
+  <si>
+    <t>SCW_TC_18</t>
+  </si>
+  <si>
+    <t>Invalid username
+Invalid password</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the login page.
+2. Input username and password combination that is incorrect.
+3. Press the login button.</t>
+  </si>
+  <si>
+    <t>A user is notified on invalid email addresses when attempting to register an account incorrectly.</t>
+  </si>
+  <si>
+    <t>A user will not be able to register an account without correctly inputting the confirmation password.</t>
+  </si>
+  <si>
+    <t>SCW_TC_19</t>
+  </si>
+  <si>
+    <t>SCW_TC_20</t>
+  </si>
+  <si>
+    <t>SCW_TC_21</t>
+  </si>
+  <si>
+    <t>SCW_TC_22</t>
+  </si>
+  <si>
+    <t>An unregistered user should not have access to any registered user type  webpages.</t>
+  </si>
+  <si>
+    <t>A student user is not able to access businessman and tourist exclusive user type webpages.</t>
+  </si>
+  <si>
+    <t>A businessman is not able to access student and tourist exclusive user type webpages.</t>
+  </si>
+  <si>
+    <t>A tourist user is not able to access student and businessman excluse user type webpages.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered  tourist account.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered businessman account.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered student account.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered admin account.</t>
+  </si>
+  <si>
+    <t>SCW_TC_23</t>
+  </si>
+  <si>
+    <t>An admin user is able delete user accounts.</t>
+  </si>
+  <si>
+    <t>An admin user is able to register new users.</t>
+  </si>
+  <si>
+    <t>Passed, besides library pages</t>
+  </si>
+  <si>
+    <t>An admin user is able to upload and update city maps</t>
+  </si>
+  <si>
+    <t>SCW_TC_24</t>
+  </si>
+  <si>
+    <t>SCW_TC_25</t>
+  </si>
+  <si>
+    <t>SCW_TC_26</t>
+  </si>
+  <si>
+    <t>SCW_TC_27</t>
+  </si>
+  <si>
+    <t>SCW_TC_28</t>
+  </si>
+  <si>
+    <t>SCW_TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed.
+</t>
+  </si>
+  <si>
+    <t>An admin user is able to create other admin users.</t>
+  </si>
+  <si>
+    <t>Admin user is able to utilise an agile system to allow information additions of other libraries in future (e.g. health services)</t>
+  </si>
+  <si>
+    <t>A student user is able to view more information about a specific college.</t>
+  </si>
+  <si>
+    <t>A student user is able to view a list of colleges in the city.</t>
+  </si>
+  <si>
+    <t>A student user is able to view a list of libraries in the city.</t>
+  </si>
+  <si>
+    <t>A tourist user is able to view a list of hotels in the city.</t>
+  </si>
+  <si>
+    <t>A tourist user is able to view more information about a specific hotel.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view more information about a specific industry.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to see the contact details of a specific industry.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view a list of industries in the city.</t>
+  </si>
+  <si>
+    <t>A businessman user is able to view a list of hotels in the city.</t>
+  </si>
+  <si>
+    <t>A tourist is able to view the number or website booking link, to book a reservation.</t>
+  </si>
+  <si>
+    <t>SCW_TC_30</t>
+  </si>
+  <si>
+    <t>SCW_TC_31</t>
+  </si>
+  <si>
+    <t>SCW_TC_32</t>
+  </si>
+  <si>
+    <t>SCW_TC_33</t>
+  </si>
+  <si>
+    <t>SCW_TC_34</t>
+  </si>
+  <si>
+    <t>SCW_TC_35</t>
+  </si>
+  <si>
+    <t>SCW_TC_36</t>
+  </si>
+  <si>
+    <t>A registered user is able to view the city maps.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of zoos and its details.</t>
+  </si>
+  <si>
+    <t>A registed user is able to view a list of malls and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of restaurants and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of parks and its details.</t>
+  </si>
+  <si>
+    <t>A registered user is able to view a list of museums and its details.</t>
+  </si>
+  <si>
+    <t>SCW_TC_37</t>
+  </si>
+  <si>
+    <t>SCW_TC_38</t>
+  </si>
+  <si>
+    <t>SCW_TC_39</t>
+  </si>
+  <si>
+    <t>SCW_TC_40</t>
+  </si>
+  <si>
+    <t>SCW_TC_41</t>
+  </si>
+  <si>
+    <t>SCW_TC_42</t>
+  </si>
+  <si>
+    <t>SCW_TC_43</t>
+  </si>
+  <si>
+    <t>The website is designed to allow future implementations of other australian cities, after brisbane.</t>
+  </si>
+  <si>
+    <t>SCW_TC_44</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
+2. User must have a registered account.</t>
+  </si>
+  <si>
+    <t>All information regarding zoos, malls, restaurants, malls, museums, and city maps, should all be viewed underneath city information.</t>
+  </si>
+  <si>
+    <t>1. SCW must be launched on a compatible web browser, connected to the internet.</t>
+  </si>
+  <si>
+    <t>A user is able to select the city they want to view information in.</t>
+  </si>
+  <si>
+    <t>A user is able to log out of their account securely, and be redirected to the select city page.</t>
+  </si>
+  <si>
+    <t>Incomplete signup form</t>
+  </si>
+  <si>
+    <t>A user is notified on missing fields, when attempting to register an account incorrectly.</t>
+  </si>
+  <si>
+    <t>Incorrect confirmation password</t>
+  </si>
+  <si>
+    <t>Restricted access page e.g. /student, /colleges etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Website URL or logged-in account.
+</t>
+  </si>
+  <si>
+    <t>Logged-in account.</t>
+  </si>
+  <si>
+    <t>Businessman Account
+Student or Tourist exclusive wepbage URLs.</t>
+  </si>
+  <si>
+    <t>Student Account
+Businessman or Tourist exclusive webpage URLs.</t>
+  </si>
+  <si>
+    <t>Tourist Account
+Businessman or Student exclusive webpage URLs.</t>
+  </si>
+  <si>
+    <t>Logged in Admin Account</t>
+  </si>
+  <si>
+    <t>Logged in Student Account</t>
+  </si>
+  <si>
+    <t>Logged in Businessman Account</t>
+  </si>
+  <si>
+    <t>Logged in Tourist Account</t>
+  </si>
+  <si>
+    <t>Logged in Registered Account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website URL
+</t>
+  </si>
+  <si>
+    <t>An admin user is able to revoke user access.</t>
+  </si>
+  <si>
+    <t>SCW_TC_45</t>
+  </si>
+  <si>
+    <t>User will have a registered student account and have access to student exclusive pages.</t>
+  </si>
+  <si>
+    <t>User will have a registered tourist account and have access to tourist exclusive pages.</t>
+  </si>
+  <si>
+    <t>User will have a registered businessman account and have access to businessman exclusive pages.</t>
+  </si>
+  <si>
+    <t>Businessman type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>Student type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>Tourist type user will have personalised information views tailored to them, upon logging on.</t>
+  </si>
+  <si>
+    <t>User is unable to log on, notified of incorrect username/password combination. Password field reset.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of incomplete fields.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of invalid email address.</t>
+  </si>
+  <si>
+    <t>User is unable to register an account. Notified of incorrect confirmation password.</t>
+  </si>
+  <si>
+    <t>User redirected to selected city's home page.</t>
+  </si>
+  <si>
+    <t>User is logged out of account, and redirected to select city page.</t>
+  </si>
+  <si>
+    <t>User is redirected to an 'access denied' page.</t>
+  </si>
+  <si>
+    <t>A new user account will be registered to the database.</t>
+  </si>
+  <si>
+    <t>An admin user is able to add and modify information libraries and data.</t>
+  </si>
+  <si>
+    <t>Library information will be updated on the website, visible to all allowed users.</t>
+  </si>
+  <si>
+    <t>A user acount will be removed from the database.</t>
+  </si>
+  <si>
+    <t>City Maps will be updated on the website, visible to all registered users.</t>
+  </si>
+  <si>
+    <t>A new admin account will  be created.</t>
+  </si>
+  <si>
+    <t>The website is able to add more libraries and information in the future.</t>
+  </si>
+  <si>
+    <t>Student users are able to view a list of colleges, with details and links.</t>
+  </si>
+  <si>
+    <t>Student users are redirected to the college website.</t>
+  </si>
+  <si>
+    <t>Student users are able to view a list of libraries, with details and links.</t>
+  </si>
+  <si>
+    <t>Businessman users are able to view a list of industries, with details and links.</t>
+  </si>
+  <si>
+    <t>Student users are redirected to the library website.</t>
+  </si>
+  <si>
+    <t>Tourist users are redirected to the hotel website.</t>
+  </si>
+  <si>
+    <t>Businessman  users are redirected to the industry website.</t>
+  </si>
+  <si>
+    <t>Businessman users are able to view the number and email address of an industry.</t>
+  </si>
+  <si>
+    <t>Tourist users are able to view a list of hotels with details and links.</t>
+  </si>
+  <si>
+    <t>Tourist users are able to view the contact number of hotels and or book a reservation online on the hotel's page.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view maps of the city.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of zoos with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of malls with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of restaurants with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of parks with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view a list of museums with details and links.</t>
+  </si>
+  <si>
+    <t>Registered users are able to view zoos, malls, restaurants, museums, parks, and city maps information under the city information.</t>
+  </si>
+  <si>
+    <t>The website is agile to add other cities and associated information.</t>
+  </si>
+  <si>
+    <t>A user will have its website access revoked.</t>
+  </si>
+  <si>
+    <t>SCW_TC_46</t>
+  </si>
+  <si>
+    <t>An admin user is able to use quick access control panel to use parts of the site conveniently.</t>
+  </si>
+  <si>
+    <t>Admin user is able to view different user views, modify users, libraries and information within the nav bar.</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page.
+2.Select a user type.
+3. Fill fields and miss one a field or more.
+4. Try to register.</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page.
+2.Select a user type.
+3. Fill all fields and don't type a valid email.
+4. Try to register.</t>
+  </si>
+  <si>
+    <t>Invalid email address
+e.g. qweqwe (no @email.com)</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the registration page.
+2.Select a user type.
+3. Fill all fields and type different passwords for the password and confirmation password fields.
+4. Try to register.</t>
+  </si>
+  <si>
+    <t>1. Successfully navigate to the site. Select a city.
+2. Or after logging in, check nav bar and press "select city".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Successfully log in to your account.
+2. Select the navigation bar, and select "logout". </t>
+  </si>
+  <si>
+    <t>1.Access the site, but not as a registered user.
+2. Type into the URL, a link to businessman or tourist pages. E.g. /businessman.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a student user.
+2. Type into the URL, a link to businessman or tourist pages. E.g. /businessman.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a businessman user.
+2. Type into the URL, a link to student pages.. E.g. /student.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a user. E.g. tourist.
+2. Type into the URL, a link to businessman or student pages. E.g. /student.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as an admin user.
+2. Select libraries.
+3. Select the desired library.
+4. Click on specified information to edit or remove, add in the top right.
+5. Save.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as an admin user.
+2. Select users.
+3. Select desired user.
+4. Delete user.</t>
+  </si>
+  <si>
+    <t>View the screenshot to see the screen being tested.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as an admin user.
+2. Select libraries.
+3. Select maps.
+4. Select Add Map+.
+5. Upload map image, fill details.
+6. Save.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as an admin user.
+2. Select users.
+3. Select Add User + in the top right.
+4. Fill all details, set privileges to staff user. 
+5.Save.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as admin user is able to utilise an agile system to allow information additions of.
+2. Future Libraries will be added upon exist libraries.
+3. Front end navigation shows placeholder for future library additions.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a student user.
+2.Select colleges on home.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a student user.
+2.Select colleges on home.
+3. Select the link of the college desired.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a student user.
+2.Select libraries on home.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a businessman user.
+2. Select Hotels.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a businessman user.
+2. Select Industries.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a businessman user.
+2. Select Industries.
+3. Select link of desired industry.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a businessman user.
+2. Select Industries.
+3. Search desired industry.
+4. Phone number should display.
+5. Select Link of desired industry for more information.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a tourist user.
+2. Select Hotels.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a tourist user.
+2. Select Hotels.
+3. Select the link of the desired hotel.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a tourist user.
+2. Select Hotels.
+3. View desired hotel.
+4. View number and select the link of the desired hotel for online booking.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select City Map.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select Zoos.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select Malls.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select Restaurants.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select Parks.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as a registered user.
+2. Select city information.
+3. Select Museums.</t>
+  </si>
+  <si>
+    <t>1. View select cities page.</t>
+  </si>
+  <si>
+    <t>1. Successfully log in as an admin user.
+2. Select users.
+3. Select desired user.
+4. Modify privileges and user access.</t>
+  </si>
+  <si>
+    <t>1. Log in as admin user.
+2. Select navigation bar.
+3. View Admin Control Panel Section for quick access.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">When the user is inputting their password inside the password and confirm password fields, a dot is used in place of their password character, to mask it.
 </t>
@@ -303,7 +1006,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>View the screenshot to see the screen being tested.</t>
+      <t xml:space="preserve">View the screenshot to see the screen being tested.
+</t>
     </r>
     <r>
       <rPr>
@@ -318,549 +1022,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Passed
-</t>
-  </si>
-  <si>
-    <t>Test has failed</t>
-  </si>
-  <si>
-    <t>Test passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed
-</t>
-  </si>
-  <si>
-    <t>Test incomplete pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student users are authenticated and can view colleges, libraries and city information, and the navigation bar is updated to allow logout, home and about us links.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Users are able to create accounts and logon securely.
-</t>
-  </si>
-  <si>
-    <t>1. Successfully navigate to the registration page of the website, from the homepage.
-2. Select the student account type on the registration page.
-3. Input desired username, email, and password within the registration form fields.</t>
-  </si>
-  <si>
-    <t>1. Successfully navigate to the registration page of the website, from the homepage.
-2. Select the businessman account type on the registration page.
-3. Input desired username, email, and password within the registration form fields.</t>
-  </si>
-  <si>
-    <t>1. Successfully navigate to the registration page of the website, from the homepage.
-2. Select the tourist account type on the registration page.
-3. Input desired username, email, and password within the registration form fields.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to register a 
-student account.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to register a
- businessman account.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is able to register a 
-tourist account.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Successfully navigate to the login page.
-2. Correctly fill in the required fields of username and password.
-3. Press the login button.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Successfully navigate to registration form page, or login page from the home page.
-2. Fill in the password and or confirm password fields within the forms.
-</t>
-  </si>
-  <si>
-    <t>1. Successfully navigate to the login page.
-2. Correctly input username and password.
-3. Press the login button.</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A valid username:
-businessmanuser
-A valid email:
-iwearsuits@gmail.com
-A valid password:
-burndowncharts
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A valid username:
-studentuser
-A valid email:
-studentuser@gmail.com
-A valid password:
-imindebt
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A valid username:
-touristuser
-A valid email:
-whereami@gmail.com
-A valid password:
-boringcity
-</t>
-  </si>
-  <si>
-    <t>A valid username
-A valid password</t>
-  </si>
-  <si>
-    <t>SCW_TC_11</t>
-  </si>
-  <si>
-    <t>A user is denied further access of the site, when an incorrect username or password is inputted on the login page.</t>
-  </si>
-  <si>
-    <t>SCW_TC_12</t>
-  </si>
-  <si>
-    <t>SCW_TC_13</t>
-  </si>
-  <si>
-    <t>SCW_TC_14</t>
-  </si>
-  <si>
-    <t>SCW_TC_15</t>
-  </si>
-  <si>
-    <t>SCW_TC_16</t>
-  </si>
-  <si>
-    <t>SCW_TC_17</t>
-  </si>
-  <si>
-    <t>SCW_TC_18</t>
-  </si>
-  <si>
-    <t>Invalid username
-Invalid password</t>
-  </si>
-  <si>
-    <t>1. Successfully navigate to the login page.
-2. Input username and password combination that is incorrect.
-3. Press the login button.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After an incorrect username and password combination is submitted, the user will not be redirected to homepage, and a notification will display to urge the user to correctly type in their combination again. "Your username and password didn't match. Try again". 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">View the screenshot to see the screen being tested.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>A user is notified on invalid email addresses when attempting to register an account incorrectly.</t>
-  </si>
-  <si>
-    <t>A user will not be able to register an account without correctly inputting the confirmation password.</t>
-  </si>
-  <si>
-    <t>SCW_TC_19</t>
-  </si>
-  <si>
-    <t>SCW_TC_20</t>
-  </si>
-  <si>
-    <t>SCW_TC_21</t>
-  </si>
-  <si>
-    <t>SCW_TC_22</t>
-  </si>
-  <si>
-    <t>An unregistered user should not have access to any registered user type  webpages.</t>
-  </si>
-  <si>
-    <t>A student user is not able to access businessman and tourist exclusive user type webpages.</t>
-  </si>
-  <si>
-    <t>A businessman is not able to access student and tourist exclusive user type webpages.</t>
-  </si>
-  <si>
-    <t>A tourist user is not able to access student and businessman excluse user type webpages.</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
-2. User must have a registered  tourist account.</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
-2. User must have a registered businessman account.</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
-2. User must have a registered student account.</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
-2. User must have a registered admin account.</t>
-  </si>
-  <si>
-    <t>SCW_TC_23</t>
-  </si>
-  <si>
-    <t>An admin user is able delete user accounts.</t>
-  </si>
-  <si>
-    <t>An admin user is able to register new users.</t>
-  </si>
-  <si>
-    <t>Passed, besides library pages</t>
-  </si>
-  <si>
-    <t>An admin user is able to upload and update city maps</t>
-  </si>
-  <si>
-    <t>SCW_TC_24</t>
-  </si>
-  <si>
-    <t>SCW_TC_25</t>
-  </si>
-  <si>
-    <t>SCW_TC_26</t>
-  </si>
-  <si>
-    <t>SCW_TC_27</t>
-  </si>
-  <si>
-    <t>SCW_TC_28</t>
-  </si>
-  <si>
-    <t>SCW_TC_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed.
-</t>
-  </si>
-  <si>
-    <t>An admin user is able to create other admin users.</t>
-  </si>
-  <si>
-    <t>Admin user is able to utilise an agile system to allow information additions of other libraries in future (e.g. health services)</t>
-  </si>
-  <si>
-    <t>A student user is able to view more information about a specific college.</t>
-  </si>
-  <si>
-    <t>A student user is able to view a list of colleges in the city.</t>
-  </si>
-  <si>
-    <t>A student user is able to view a list of libraries in the city.</t>
-  </si>
-  <si>
-    <t>A tourist user is able to view a list of hotels in the city.</t>
-  </si>
-  <si>
-    <t>A tourist user is able to view more information about a specific hotel.</t>
-  </si>
-  <si>
-    <t>A businessman user is able to view more information about a specific industry.</t>
-  </si>
-  <si>
-    <t>A businessman user is able to see the contact details of a specific industry.</t>
-  </si>
-  <si>
-    <t>A businessman user is able to view a list of industries in the city.</t>
-  </si>
-  <si>
-    <t>A businessman user is able to view a list of hotels in the city.</t>
-  </si>
-  <si>
-    <t>A tourist is able to view the number or website booking link, to book a reservation.</t>
-  </si>
-  <si>
-    <t>SCW_TC_30</t>
-  </si>
-  <si>
-    <t>SCW_TC_31</t>
-  </si>
-  <si>
-    <t>SCW_TC_32</t>
-  </si>
-  <si>
-    <t>SCW_TC_33</t>
-  </si>
-  <si>
-    <t>SCW_TC_34</t>
-  </si>
-  <si>
-    <t>SCW_TC_35</t>
-  </si>
-  <si>
-    <t>SCW_TC_36</t>
-  </si>
-  <si>
-    <t>A registered user is able to view the city maps.</t>
-  </si>
-  <si>
-    <t>A registered user is able to view a list of zoos and its details.</t>
-  </si>
-  <si>
-    <t>A registed user is able to view a list of malls and its details.</t>
-  </si>
-  <si>
-    <t>A registered user is able to view a list of restaurants and its details.</t>
-  </si>
-  <si>
-    <t>A registered user is able to view a list of parks and its details.</t>
-  </si>
-  <si>
-    <t>A registered user is able to view a list of museums and its details.</t>
-  </si>
-  <si>
-    <t>SCW_TC_37</t>
-  </si>
-  <si>
-    <t>SCW_TC_38</t>
-  </si>
-  <si>
-    <t>SCW_TC_39</t>
-  </si>
-  <si>
-    <t>SCW_TC_40</t>
-  </si>
-  <si>
-    <t>SCW_TC_41</t>
-  </si>
-  <si>
-    <t>SCW_TC_42</t>
-  </si>
-  <si>
-    <t>SCW_TC_43</t>
-  </si>
-  <si>
-    <t>The website is designed to allow future implementations of other australian cities, after brisbane.</t>
-  </si>
-  <si>
-    <t>SCW_TC_44</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.
-2. User must have a registered account.</t>
-  </si>
-  <si>
-    <t>All information regarding zoos, malls, restaurants, malls, museums, and city maps, should all be viewed underneath city information.</t>
-  </si>
-  <si>
-    <t>1. SCW must be launched on a compatible web browser, connected to the internet.</t>
-  </si>
-  <si>
-    <t>A user is able to select the city they want to view information in.</t>
-  </si>
-  <si>
-    <t>A user is able to log out of their account securely, and be redirected to the select city page.</t>
-  </si>
-  <si>
-    <t>Incomplete signup form</t>
-  </si>
-  <si>
-    <t>A user is notified on missing fields, when attempting to register an account incorrectly.</t>
-  </si>
-  <si>
-    <t>Incomplete email address field</t>
-  </si>
-  <si>
-    <t>Incorrect confirmation password</t>
-  </si>
-  <si>
-    <t>Restricted access page e.g. /student, /colleges etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Website URL or logged-in account.
-</t>
-  </si>
-  <si>
-    <t>Logged-in account.</t>
-  </si>
-  <si>
-    <t>Businessman Account
-Student or Tourist exclusive wepbage URLs.</t>
-  </si>
-  <si>
-    <t>Student Account
-Businessman or Tourist exclusive webpage URLs.</t>
-  </si>
-  <si>
-    <t>Tourist Account
-Businessman or Student exclusive webpage URLs.</t>
-  </si>
-  <si>
-    <t>Logged in Admin Account</t>
-  </si>
-  <si>
-    <t>Logged in Student Account</t>
-  </si>
-  <si>
-    <t>Logged in Businessman Account</t>
-  </si>
-  <si>
-    <t>Logged in Tourist Account</t>
-  </si>
-  <si>
-    <t>Logged in Registered Account.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website URL
-</t>
-  </si>
-  <si>
-    <t>An admin user is able to revoke user access.</t>
-  </si>
-  <si>
-    <t>SCW_TC_45</t>
-  </si>
-  <si>
-    <t>User will have a registered student account and have access to student exclusive pages.</t>
-  </si>
-  <si>
-    <t>User will have a registered tourist account and have access to tourist exclusive pages.</t>
-  </si>
-  <si>
-    <t>User will have a registered businessman account and have access to businessman exclusive pages.</t>
-  </si>
-  <si>
-    <t>Businessman type user will have personalised information views tailored to them, upon logging on.</t>
-  </si>
-  <si>
-    <t>Student type user will have personalised information views tailored to them, upon logging on.</t>
-  </si>
-  <si>
-    <t>Tourist type user will have personalised information views tailored to them, upon logging on.</t>
-  </si>
-  <si>
-    <t>User is unable to log on, notified of incorrect username/password combination. Password field reset.</t>
-  </si>
-  <si>
-    <t>User is unable to register an account. Notified of incomplete fields.</t>
-  </si>
-  <si>
-    <t>User is unable to register an account. Notified of invalid email address.</t>
-  </si>
-  <si>
-    <t>User is unable to register an account. Notified of incorrect confirmation password.</t>
-  </si>
-  <si>
-    <t>User redirected to selected city's home page.</t>
-  </si>
-  <si>
-    <t>User is logged out of account, and redirected to select city page.</t>
-  </si>
-  <si>
-    <t>User is redirected to an 'access denied' page.</t>
-  </si>
-  <si>
-    <t>A new user account will be registered to the database.</t>
-  </si>
-  <si>
-    <t>An admin user is able to add and modify information libraries and data.</t>
-  </si>
-  <si>
-    <t>Library information will be updated on the website, visible to all allowed users.</t>
-  </si>
-  <si>
-    <t>A user acount will be removed from the database.</t>
-  </si>
-  <si>
-    <t>City Maps will be updated on the website, visible to all registered users.</t>
-  </si>
-  <si>
-    <t>A new admin account will  be created.</t>
-  </si>
-  <si>
-    <t>The website is able to add more libraries and information in the future.</t>
-  </si>
-  <si>
-    <t>Student users are able to view a list of colleges, with details and links.</t>
-  </si>
-  <si>
-    <t>Student users are redirected to the college website.</t>
-  </si>
-  <si>
-    <t>Student users are able to view a list of libraries, with details and links.</t>
-  </si>
-  <si>
-    <t>Businessman users are able to view a list of industries, with details and links.</t>
-  </si>
-  <si>
-    <t>Student users are redirected to the library website.</t>
-  </si>
-  <si>
-    <t>Tourist users are redirected to the hotel website.</t>
-  </si>
-  <si>
-    <t>Businessman  users are redirected to the industry website.</t>
-  </si>
-  <si>
-    <t>Businessman users are able to view the number and email address of an industry.</t>
-  </si>
-  <si>
-    <t>Tourist users are able to view a list of hotels with details and links.</t>
-  </si>
-  <si>
-    <t>Tourist users are able to view the contact number of hotels and or book a reservation online on the hotel's page.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view maps of the city.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view a list of zoos with details and links.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view a list of malls with details and links.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view a list of restaurants with details and links.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view a list of parks with details and links.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view a list of museums with details and links.</t>
-  </si>
-  <si>
-    <t>Registered users are able to view zoos, malls, restaurants, museums, parks, and city maps information under the city information.</t>
-  </si>
-  <si>
-    <t>The website is agile to add other cities and associated information.</t>
-  </si>
-  <si>
-    <t>A user will have its website access revoked.</t>
-  </si>
-  <si>
-    <t>SCW_TC_46</t>
-  </si>
-  <si>
-    <t>An admin user is able to use quick access control panel to use parts of the site conveniently.</t>
-  </si>
-  <si>
-    <t>Admin user is able to view different user views, modify users, libraries and information within the nav bar.</t>
+    <t xml:space="preserve">After an incorrect username and password combination is submitted, the user will not be redirected to homepage, and a notification will display to urge the user to correctly type in their combination again. "Your username and password didn't match. Try again". 
+View the screenshot to see the screen being tested.
+</t>
   </si>
 </sst>
 </file>
@@ -1381,20 +1545,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1430,15 +1588,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,64 +1601,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1524,12 +1619,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1550,9 +1639,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1596,6 +1682,108 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1D04BC-071B-46C5-9567-A78BA4D1772B}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,889 +2189,974 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="77"/>
+      <c r="G2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="79"/>
+      <c r="G3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="G4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="G3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="G4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>111</v>
+      <c r="H8" s="68" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="24" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="34"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="24" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="36" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="34"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>53</v>
+      <c r="H13" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="35"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="35"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="E18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="H18" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="E19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>69</v>
+      <c r="F21" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>69</v>
+      <c r="E25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>69</v>
+      <c r="D26" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>69</v>
+      <c r="D27" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="25" t="s">
+    <row r="28" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>69</v>
+      <c r="D28" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="25" t="s">
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>69</v>
+      <c r="D29" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>69</v>
+      <c r="A30" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>69</v>
+      <c r="D31" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>103</v>
+      <c r="A32" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>103</v>
+      <c r="A33" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>103</v>
+      <c r="A34" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>69</v>
+      <c r="A35" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>69</v>
+    <row r="36" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="21" t="s">
+    <row r="37" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="23" t="s">
+      <c r="C37" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
+      <c r="H40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="H41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
+      <c r="C42" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23" t="s">
+      <c r="H42" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23" t="s">
+      <c r="H43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="H44" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -2893,28 +3166,32 @@
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="A45" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -2924,28 +3201,32 @@
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="A46" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -2954,29 +3235,33 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="H47" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+    <row r="47" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -2986,28 +3271,32 @@
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="H48" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="A48" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -3017,28 +3306,32 @@
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="H49" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="A49" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -3048,28 +3341,32 @@
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="H50" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="A50" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -3079,28 +3376,32 @@
       <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -3110,28 +3411,32 @@
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="H52" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="A52" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -3141,28 +3446,32 @@
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="H53" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="A53" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -3172,28 +3481,32 @@
       <c r="Q53" s="2"/>
     </row>
     <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="H54" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="A54" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -3203,28 +3516,32 @@
       <c r="Q54" s="2"/>
     </row>
     <row r="55" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="A55" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -3234,28 +3551,32 @@
       <c r="Q55" s="2"/>
     </row>
     <row r="56" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="A56" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -3265,28 +3586,32 @@
       <c r="Q56" s="2"/>
     </row>
     <row r="57" spans="1:17" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="A57" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -3296,25 +3621,29 @@
       <c r="Q57" s="2"/>
     </row>
     <row r="58" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="H58" s="78" t="s">
-        <v>69</v>
+      <c r="A58" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3326,26 +3655,30 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="H59" s="78" t="s">
-        <v>69</v>
+    <row r="59" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="92" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3358,25 +3691,29 @@
       <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="H60" s="55" t="s">
-        <v>69</v>
+      <c r="A60" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
